--- a/doc/examples/demand/demand-policies.xlsx
+++ b/doc/examples/demand/demand-policies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\examples\demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D43D7C-2BCA-4DBA-BB89-D640EDADD678}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F01DC-0BC8-47B9-B6BA-884F65C68572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="-14130" windowWidth="27030" windowHeight="12405" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,12 @@
     <sheet name="operation" sheetId="11" r:id="rId7"/>
     <sheet name="parameter" sheetId="19" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -208,6 +201,9 @@
   </si>
   <si>
     <t>Maximum Lateness</t>
+  </si>
+  <si>
+    <t>2023-01-01  00:00:00</t>
   </si>
 </sst>
 </file>
@@ -243,9 +239,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +584,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +753,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +762,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
@@ -817,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>41644</v>
+        <v>44931</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -843,7 +840,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>41644</v>
+        <v>44931</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -873,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>41644</v>
+        <v>44931</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -902,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>41644</v>
+        <v>44931</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -931,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>41644</v>
+        <v>44931</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -964,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>41644</v>
+        <v>44931</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1538,13 +1535,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1563,8 +1560,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
-        <v>41640</v>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
